--- a/biology/Histoire de la zoologie et de la botanique/John_Joseph_Bennett/John_Joseph_Bennett.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Joseph_Bennett/John_Joseph_Bennett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Joseph Bennett, né le 8 janvier 1801 et mort le 29 février 1876 est un botaniste britannique.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est élu à la Royal Society en 1841.
 On lui doit la description des plantes récoltées à Java par Thomas Horsfield : Plantae javanicae rariores descriptae iconibus illustratae, quas in insula Java, annis 1802-1818, legit et investigavit Thomas Horsfield, M.D. e siccis descriptiones et characteres plurimarum elaboravit Johannes J. Bennett. observationes structuram et affinitates praesertim respicientes passim adjecit Robertus Brown, publié à Londres de 1838 à 1852.
-Bennett a aussi  réédité les œuvres complètes de Robert Brown[1].
-Il est le frère du zoologiste Edward Turner Bennett[2].
+Bennett a aussi  réédité les œuvres complètes de Robert Brown.
+Il est le frère du zoologiste Edward Turner Bennett.
 </t>
         </is>
       </c>
